--- a/Planilhas/Força trabalho SEXO NACIONAL.xlsx
+++ b/Planilhas/Força trabalho SEXO NACIONAL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -491,8 +491,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>3522</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3522</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,8 +509,10 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>2167</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -527,8 +531,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>3188</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3188</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -543,8 +549,10 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>1908</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -563,8 +571,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>2656</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2656</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -579,8 +589,10 @@
       <c r="G4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>1779</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -599,8 +611,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2605</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2605</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,8 +629,10 @@
       <c r="G5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>1805</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -635,8 +651,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2706</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2706</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -651,8 +669,10 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>1885</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -671,8 +691,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2614</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2614</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -687,8 +709,10 @@
       <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>1749</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1749</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -707,8 +731,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2469</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2469</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -723,8 +749,10 @@
       <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
-        <v>1693</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -743,8 +771,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2456</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2456</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -759,8 +789,10 @@
       <c r="G9" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="n">
-        <v>1555</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1555</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -779,8 +811,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2322</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2322</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -795,8 +829,10 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
-        <v>1632</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -815,8 +851,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2288</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2288</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -831,8 +869,10 @@
       <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="n">
-        <v>1535</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -851,8 +891,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2236</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2236</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -867,8 +909,10 @@
       <c r="G12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="n">
-        <v>1499</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1499</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -887,8 +931,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>2418</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2418</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -903,8 +949,10 @@
       <c r="G13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="n">
-        <v>1562</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -923,8 +971,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2477</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2477</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -939,8 +989,10 @@
       <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>1649</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1649</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -959,8 +1011,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2649</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2649</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -975,8 +1029,10 @@
       <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
-        <v>1651</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -995,8 +1051,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>2904</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1011,8 +1069,10 @@
       <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="n">
-        <v>1696</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1696</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1031,8 +1091,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>1990</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1047,8 +1109,10 @@
       <c r="G17" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="n">
-        <v>1992</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1067,8 +1131,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>2033</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1083,8 +1149,10 @@
       <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>2038</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1103,8 +1171,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>2333</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2333</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1119,8 +1189,10 @@
       <c r="G19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>2278</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2278</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1139,8 +1211,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2313</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2313</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1155,8 +1229,10 @@
       <c r="G20" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
-        <v>2392</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2392</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1175,8 +1251,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2568</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2568</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1191,8 +1269,10 @@
       <c r="G21" t="n">
         <v>4</v>
       </c>
-      <c r="H21" t="n">
-        <v>2628</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2628</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1211,8 +1291,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2526</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2526</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1227,8 +1309,10 @@
       <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="n">
-        <v>2809</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2809</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1247,8 +1331,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>2812</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2812</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1263,8 +1349,10 @@
       <c r="G23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="n">
-        <v>2776</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2776</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1283,8 +1371,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>2861</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2861</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1299,8 +1389,10 @@
       <c r="G24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="n">
-        <v>2938</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1319,8 +1411,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>3028</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3028</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1335,8 +1429,10 @@
       <c r="G25" t="n">
         <v>4</v>
       </c>
-      <c r="H25" t="n">
-        <v>2995</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2995</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1355,8 +1451,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>2995</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2995</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1371,8 +1469,10 @@
       <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="n">
-        <v>3156</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>3156</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1391,8 +1491,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>3086</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3086</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1407,8 +1509,10 @@
       <c r="G27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
-        <v>3343</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>3343</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1427,8 +1531,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>3268</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3268</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1443,8 +1549,10 @@
       <c r="G28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="n">
-        <v>3192</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>3192</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1463,8 +1571,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>3207</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3207</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1479,8 +1589,10 @@
       <c r="G29" t="n">
         <v>4</v>
       </c>
-      <c r="H29" t="n">
-        <v>3164</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1499,8 +1611,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>3242</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3242</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1515,8 +1629,10 @@
       <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
-        <v>3336</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>3336</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1535,8 +1651,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>3429</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3429</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1551,8 +1669,10 @@
       <c r="G31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="n">
-        <v>3293</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>3293</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1571,8 +1691,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>3333</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1587,8 +1709,10 @@
       <c r="G32" t="n">
         <v>3</v>
       </c>
-      <c r="H32" t="n">
-        <v>3157</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1607,8 +1731,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>3211</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1623,8 +1749,10 @@
       <c r="G33" t="n">
         <v>4</v>
       </c>
-      <c r="H33" t="n">
-        <v>3110</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1643,8 +1771,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>3094</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3094</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1659,8 +1789,10 @@
       <c r="G34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="n">
-        <v>3402</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>3402</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1679,8 +1811,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>2715</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2715</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1695,8 +1829,10 @@
       <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="n">
-        <v>5853</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>5853</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1715,8 +1851,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>3062</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3062</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1731,8 +1869,10 @@
       <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="n">
-        <v>5336</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>5336</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1751,8 +1891,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>3250</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3250</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1767,8 +1909,10 @@
       <c r="G37" t="n">
         <v>4</v>
       </c>
-      <c r="H37" t="n">
-        <v>4500</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1787,8 +1931,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>3346</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3346</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1803,8 +1949,10 @@
       <c r="G38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="n">
-        <v>4556</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1823,8 +1971,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>3585</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3585</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1839,8 +1989,10 @@
       <c r="G39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="n">
-        <v>4013</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>4013</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1859,8 +2011,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>3625</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1875,8 +2029,10 @@
       <c r="G40" t="n">
         <v>3</v>
       </c>
-      <c r="H40" t="n">
-        <v>3611</v>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1895,8 +2051,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>3320</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3320</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1911,8 +2069,10 @@
       <c r="G41" t="n">
         <v>4</v>
       </c>
-      <c r="H41" t="n">
-        <v>3416</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>3416</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1931,8 +2091,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>3032</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3032</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1947,8 +2109,10 @@
       <c r="G42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="n">
-        <v>3261</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>3261</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1967,8 +2131,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>3033</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3033</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1983,8 +2149,10 @@
       <c r="G43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="n">
-        <v>3135</v>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2003,8 +2171,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>2886</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2019,8 +2189,10 @@
       <c r="G44" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="n">
-        <v>3048</v>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>3048</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2039,8 +2211,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>2515</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2515</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2055,8 +2229,10 @@
       <c r="G45" t="n">
         <v>4</v>
       </c>
-      <c r="H45" t="n">
-        <v>2843</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2843</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2075,8 +2251,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>2396</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2396</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2091,8 +2269,10 @@
       <c r="G46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="n">
-        <v>2854</v>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2854</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2111,8 +2291,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>2416</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2416</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2127,8 +2309,10 @@
       <c r="G47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="n">
-        <v>2638</v>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2638</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2147,8 +2331,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>2518</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2518</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2163,8 +2349,10 @@
       <c r="G48" t="n">
         <v>3</v>
       </c>
-      <c r="H48" t="n">
-        <v>2542</v>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2183,8 +2371,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>2634</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2199,8 +2389,10 @@
       <c r="G49" t="n">
         <v>4</v>
       </c>
-      <c r="H49" t="n">
-        <v>2574</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2574</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2219,8 +2411,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>3491</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3491</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2235,8 +2429,10 @@
       <c r="G50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>4518</v>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2255,8 +2451,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>3154</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3154</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2271,8 +2469,10 @@
       <c r="G51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="n">
-        <v>3808</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2291,8 +2491,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>2747</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2747</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2307,8 +2509,10 @@
       <c r="G52" t="n">
         <v>3</v>
       </c>
-      <c r="H52" t="n">
-        <v>3311</v>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>3311</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2327,8 +2531,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>2671</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2343,8 +2549,10 @@
       <c r="G53" t="n">
         <v>4</v>
       </c>
-      <c r="H53" t="n">
-        <v>3263</v>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>3263</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2363,8 +2571,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>2566</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2566</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2379,8 +2589,10 @@
       <c r="G54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
-        <v>3363</v>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>3363</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2399,8 +2611,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>2521</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2521</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2415,8 +2629,10 @@
       <c r="G55" t="n">
         <v>2</v>
       </c>
-      <c r="H55" t="n">
-        <v>3072</v>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2435,8 +2651,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>2400</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2451,8 +2669,10 @@
       <c r="G56" t="n">
         <v>3</v>
       </c>
-      <c r="H56" t="n">
-        <v>2993</v>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2993</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2471,8 +2691,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>2323</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2487,8 +2709,10 @@
       <c r="G57" t="n">
         <v>4</v>
       </c>
-      <c r="H57" t="n">
-        <v>2864</v>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2864</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2507,8 +2731,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>2209</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2209</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2523,8 +2749,10 @@
       <c r="G58" t="n">
         <v>1</v>
       </c>
-      <c r="H58" t="n">
-        <v>2733</v>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2733</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2543,8 +2771,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>2135</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2559,8 +2789,10 @@
       <c r="G59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="n">
-        <v>2555</v>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2555</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2579,8 +2811,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>2206</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2206</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2595,8 +2829,10 @@
       <c r="G60" t="n">
         <v>3</v>
       </c>
-      <c r="H60" t="n">
-        <v>2572</v>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2572</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2615,8 +2851,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>2279</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2279</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2631,8 +2869,10 @@
       <c r="G61" t="n">
         <v>4</v>
       </c>
-      <c r="H61" t="n">
-        <v>2688</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2688</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2651,8 +2891,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>2305</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2667,8 +2909,10 @@
       <c r="G62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="n">
-        <v>2854</v>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2854</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2687,8 +2931,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>2601</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2601</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2703,8 +2949,10 @@
       <c r="G63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="n">
-        <v>2763</v>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2763</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2723,8 +2971,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>2631</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2631</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2739,8 +2989,10 @@
       <c r="G64" t="n">
         <v>3</v>
       </c>
-      <c r="H64" t="n">
-        <v>2827</v>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2827</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2759,8 +3011,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>2104</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2775,8 +3029,10 @@
       <c r="G65" t="n">
         <v>4</v>
       </c>
-      <c r="H65" t="n">
-        <v>3279</v>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>3279</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2795,8 +3051,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>2167</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2167</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2811,8 +3069,10 @@
       <c r="G66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="n">
-        <v>3340</v>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>3340</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2831,8 +3091,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>2479</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2847,8 +3109,10 @@
       <c r="G67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="n">
-        <v>3911</v>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>3911</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2867,8 +3131,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>2480</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2883,8 +3149,10 @@
       <c r="G68" t="n">
         <v>3</v>
       </c>
-      <c r="H68" t="n">
-        <v>3665</v>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>3665</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2903,8 +3171,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>2700</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2919,8 +3189,10 @@
       <c r="G69" t="n">
         <v>4</v>
       </c>
-      <c r="H69" t="n">
-        <v>3983</v>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>3983</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2939,8 +3211,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>2719</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2719</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2955,8 +3229,10 @@
       <c r="G70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
-        <v>4198</v>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2975,8 +3251,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>2995</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2995</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2991,8 +3269,10 @@
       <c r="G71" t="n">
         <v>2</v>
       </c>
-      <c r="H71" t="n">
-        <v>4150</v>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>4150</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3011,8 +3291,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>3396</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3027,8 +3309,10 @@
       <c r="G72" t="n">
         <v>3</v>
       </c>
-      <c r="H72" t="n">
-        <v>4490</v>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>4490</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3047,8 +3331,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>3431</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3431</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3063,8 +3349,10 @@
       <c r="G73" t="n">
         <v>4</v>
       </c>
-      <c r="H73" t="n">
-        <v>4546</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>4546</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3083,8 +3371,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>3208</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3208</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3099,8 +3389,10 @@
       <c r="G74" t="n">
         <v>1</v>
       </c>
-      <c r="H74" t="n">
-        <v>4556</v>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3119,8 +3411,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>3429</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3429</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3135,8 +3429,10 @@
       <c r="G75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="n">
-        <v>4728</v>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -3155,8 +3451,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>3602</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3602</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3171,8 +3469,10 @@
       <c r="G76" t="n">
         <v>3</v>
       </c>
-      <c r="H76" t="n">
-        <v>4690</v>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -3191,8 +3491,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>3709</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3709</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3207,8 +3509,10 @@
       <c r="G77" t="n">
         <v>4</v>
       </c>
-      <c r="H77" t="n">
-        <v>4638</v>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3227,8 +3531,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>3563</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3563</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3243,8 +3549,10 @@
       <c r="G78" t="n">
         <v>1</v>
       </c>
-      <c r="H78" t="n">
-        <v>4832</v>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>4832</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3263,8 +3571,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>3969</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3969</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3279,8 +3589,10 @@
       <c r="G79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="n">
-        <v>4963</v>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>4963</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -3299,8 +3611,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>3769</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3769</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3315,8 +3629,10 @@
       <c r="G80" t="n">
         <v>3</v>
       </c>
-      <c r="H80" t="n">
-        <v>4763</v>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -3335,8 +3651,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>3645</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3645</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3351,8 +3669,10 @@
       <c r="G81" t="n">
         <v>4</v>
       </c>
-      <c r="H81" t="n">
-        <v>4652</v>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>4652</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3371,8 +3691,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>3427</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3427</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3387,8 +3709,10 @@
       <c r="G82" t="n">
         <v>1</v>
       </c>
-      <c r="H82" t="n">
-        <v>4921</v>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>4921</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3407,8 +3731,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>2927</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2927</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3423,8 +3749,10 @@
       <c r="G83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="n">
-        <v>7815</v>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>7815</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3443,8 +3771,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>3211</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3459,8 +3789,10 @@
       <c r="G84" t="n">
         <v>3</v>
       </c>
-      <c r="H84" t="n">
-        <v>7540</v>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>7540</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -3479,8 +3811,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>3615</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3615</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3495,8 +3829,10 @@
       <c r="G85" t="n">
         <v>4</v>
       </c>
-      <c r="H85" t="n">
-        <v>6763</v>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>6763</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -3515,8 +3851,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>3745</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3745</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3531,8 +3869,10 @@
       <c r="G86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="n">
-        <v>6751</v>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>6751</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -3551,8 +3891,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>4059</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4059</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3567,8 +3909,10 @@
       <c r="G87" t="n">
         <v>2</v>
       </c>
-      <c r="H87" t="n">
-        <v>6112</v>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>6112</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -3587,8 +3931,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>4145</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3603,8 +3949,10 @@
       <c r="G88" t="n">
         <v>3</v>
       </c>
-      <c r="H88" t="n">
-        <v>5908</v>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>5908</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -3623,8 +3971,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>4048</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4048</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3639,8 +3989,10 @@
       <c r="G89" t="n">
         <v>4</v>
       </c>
-      <c r="H89" t="n">
-        <v>5549</v>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>5549</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -3659,8 +4011,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>3477</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3477</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3675,8 +4029,10 @@
       <c r="G90" t="n">
         <v>1</v>
       </c>
-      <c r="H90" t="n">
-        <v>5094</v>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>5094</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -3695,8 +4051,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>3536</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3536</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3711,8 +4069,10 @@
       <c r="G91" t="n">
         <v>2</v>
       </c>
-      <c r="H91" t="n">
-        <v>4951</v>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -3731,8 +4091,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>3308</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3747,8 +4109,10 @@
       <c r="G92" t="n">
         <v>3</v>
       </c>
-      <c r="H92" t="n">
-        <v>4725</v>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -3767,8 +4131,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>2914</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3783,8 +4149,10 @@
       <c r="G93" t="n">
         <v>4</v>
       </c>
-      <c r="H93" t="n">
-        <v>4462</v>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>4462</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -3803,8 +4171,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>2618</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3819,8 +4189,10 @@
       <c r="G94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="n">
-        <v>4277</v>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -3839,8 +4211,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>2717</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2717</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3855,8 +4229,10 @@
       <c r="G95" t="n">
         <v>2</v>
       </c>
-      <c r="H95" t="n">
-        <v>3933</v>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>3933</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -3875,8 +4251,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>2807</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2807</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3891,8 +4269,10 @@
       <c r="G96" t="n">
         <v>3</v>
       </c>
-      <c r="H96" t="n">
-        <v>3967</v>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -3911,8 +4291,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>2801</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2801</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3927,8 +4309,10 @@
       <c r="G97" t="n">
         <v>4</v>
       </c>
-      <c r="H97" t="n">
-        <v>3845</v>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
       </c>
     </row>
   </sheetData>
